--- a/tl/S50003.MES.BIN.xlsx
+++ b/tl/S50003.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647984E0-5A07-4159-A58F-F86616DCFC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A00681-3409-4EF0-96B0-5FF8AD1EFE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="7020" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="16200" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S50003.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>Status</t>
   </si>
@@ -53,13 +53,13 @@
     <t>Touya</t>
   </si>
   <si>
-    <t>Huh? What is it?</t>
+    <t>Huh? What is?</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Unexpectedly, I ask her without thinking.</t>
+    <t>Without warning, I ask her without thinking.</t>
   </si>
   <si>
     <t>5</t>
@@ -83,25 +83,31 @@
     <t>9</t>
   </si>
   <si>
-    <t>See you later, Fujii-san. Thanks for your hard work today- bye bye.</t>
+    <t>See you later, Fujii-san. Thanks for your hard work today. Bye bye.</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>Without saying anything, I follow her out of the house, carried away by her flowing momentum.</t>
+  </si>
+  <si>
     <t>Without saying anything, I get caught in the flowing momentum and leave the house with her.</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
+    <t>Well, I'll be going. Goodbye, Fujii-san.</t>
+  </si>
+  <si>
     <t>Well, I'm off. Goodbye, Fujii-san.</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>She was so grumpy when facing the desk, but she's just a girl with volatile emotions.</t>
+    <t>She was so sullen when she was facing the desk, but she's a girl with rapid mood changes.</t>
   </si>
   <si>
     <t>She was so grumpy when facing the desk, but she's just a girl with a lot of emotional changes.</t>
@@ -547,9 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -768,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -788,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -800,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -820,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -832,10 +836,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -852,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -864,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -884,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -899,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -916,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -931,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
